--- a/biology/Botanique/Ripogonaceae/Ripogonaceae.xlsx
+++ b/biology/Botanique/Ripogonaceae/Ripogonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Ripogonaceae (parfois orthographiée Rhipogonaceae) est constituée de plantes monocotylédones ; elle ne comprend qu'un seul genre, Ripogonum renfermant de 2 à 6 espèces.
 Ce sont des plantes grimpantes (lianes) qui ressemblent à la vigne et que l'on rencontre de la Nouvelle-Zélande à la Nouvelle-Guinée, les feuilles simples sont généralement opposées avec 3 fortes nervures longitudinales. Les petites fleurs sont regroupées sur des inflorescences axillaires, en grappes ou en épis plus ou moins lâches, les fruits sont des baies.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Ripogonum qui dérive des mots grecs ῥιπος (rhipos), osier, se référant aux longues pousses, et γονυ (goni), genou, articulé, de par l'aspect articulé des tiges[1]. Le mot grec ῥιπος commençant par un rho aspiré plutôt que par un rho ordinaire, les érudits classiques ont préféré le transcrire avec rh-. Par conséquent, les premiers botanistes ont traité l'orthographe de Johann et Georg Forster comme une erreur à corriger et l'orthographe Rhipogonum a été utilisée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Ripogonum qui dérive des mots grecs ῥιπος (rhipos), osier, se référant aux longues pousses, et γονυ (goni), genou, articulé, de par l'aspect articulé des tiges. Le mot grec ῥιπος commençant par un rho aspiré plutôt que par un rho ordinaire, les érudits classiques ont préféré le transcrire avec rh-. Par conséquent, les premiers botanistes ont traité l'orthographe de Johann et Georg Forster comme une erreur à corriger et l'orthographe Rhipogonum a été utilisée.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], cette famille n'existe pas. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas. 
 La classification phylogénétique sépare en effet cette famille des Smilacaceae pour en faire une famille à part entière dans l'ordre des Liliales.
 </t>
         </is>
@@ -576,12 +592,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (16 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (16 avr. 2010) :
 famille Ripogonaceae
 genre Ripogonum (en)
-Selon NCBI  (16 avr. 2010)[5] et Angiosperm Phylogeny Website                        (18 mai 2010)[6] :
+Selon NCBI  (16 avr. 2010) et Angiosperm Phylogeny Website                        (18 mai 2010) :
 famille Rhipogonaceae
 genre Rhipogonum J.R.Forst. &amp; G.Forst.</t>
         </is>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 avr. 2010) :
 genre Rhipogonum
 Rhipogonum discolor
 Rhipogonum elseyanum
